--- a/src/data/SectionData/SectionData_06052012_142726.xlsx
+++ b/src/data/SectionData/SectionData_06052012_142726.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2313F69E-AC4E-4B10-94E0-DDCD5060BE50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7860"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Level I Sections" sheetId="1" r:id="rId1"/>
@@ -2006,7 +2007,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -2550,15 +2551,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="6"/>
-    <cellStyle name="Normal 11" xfId="8"/>
-    <cellStyle name="Normal 12" xfId="9"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
-    <cellStyle name="Normal 6" xfId="4"/>
-    <cellStyle name="Normal 7" xfId="5"/>
-    <cellStyle name="Normal 8" xfId="7"/>
+    <cellStyle name="Normal 10" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 11" xfId="8" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 12" xfId="9" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal 6" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Normal 7" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Normal 8" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2567,6 +2568,14 @@
       <color rgb="FFEAEAEA"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2613,7 +2622,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2645,9 +2654,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2679,6 +2706,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2854,14 +2899,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -13467,17 +13512,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:U129">
-    <filterColumn colId="1"/>
-    <filterColumn colId="2"/>
-    <filterColumn colId="5"/>
-    <filterColumn colId="6"/>
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="9"/>
-    <filterColumn colId="10"/>
-    <filterColumn colId="11"/>
-  </autoFilter>
+  <autoFilter ref="B1:U129" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13485,7 +13520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13500,7 +13535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="J1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
